--- a/biology/Biologie cellulaire et moléculaire/Acrosine/Acrosine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Acrosine/Acrosine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acrosine (EC 3.4.21.10) est une enzyme présente dans l'acrosome qui permet au spermatozoïde de pénétrer la zone pellucide de l'ovocyte de 2e ordre.
@@ -512,7 +524,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La proacrosine se fixe d'abord par une liaison dite secondaire entre le spermatozoïde et la zone pellucide avec la glycoprotéine ZP3. Ensuite, une liaison de type électrostatique entre la proacrosine et la ZP2 libère l'acrosine qui, à elle seule, exprime l'activité enzymatique de type protéase permettant la digestion de la zone pellucide par le spermatozoïde et ainsi sa progression vers l'espace périvitellin en vue de la fusion des gamètes.
 L'acrosine est une protéase de type S1 (coupure sur Lys-|-Xaa ou Arg-|-Xaa).
@@ -544,7 +558,9 @@
           <t>Séquence de l'acrosine humaine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La proacrosine contient 421 résidus d'acides aminés. Lors de son activation, la chaîne se sépare en deux : une chaîne légère (acides aminés 20 à 42) et une chaîne lourde (acides aminés 43 à 343), les deux étant reliées par deux ponts disulfures.
         10         20         30         40         50         60
